--- a/CASUAL/LA TICC/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/CASUAL/LA TICC/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
   <si>
     <t>PERIOD</t>
   </si>
@@ -496,6 +496,24 @@
   </si>
   <si>
     <t>UT(1-0-12)</t>
+  </si>
+  <si>
+    <t>UT(0-2-5)</t>
+  </si>
+  <si>
+    <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-2-11)</t>
+  </si>
+  <si>
+    <t>UT(0-1-58)</t>
+  </si>
+  <si>
+    <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1461,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1802,12 +1820,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1990,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.988000000000003</v>
+        <v>23.046000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3722,44 +3740,38 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1.25</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C92" s="13"/>
       <c r="D92" s="39">
-        <v>5</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H92" s="39">
-        <v>7</v>
-      </c>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="51" t="s">
-        <v>128</v>
-      </c>
+      <c r="K92" s="47"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
-      <c r="D93" s="39"/>
+      <c r="D93" s="39">
+        <v>5</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
@@ -3767,52 +3779,50 @@
         <v>1.25</v>
       </c>
       <c r="H93" s="39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="47">
-        <v>44762</v>
+      <c r="K93" s="51" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D94" s="39"/>
+        <v>154</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H94" s="39">
-        <v>1</v>
-      </c>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="47">
-        <v>44788</v>
-      </c>
+      <c r="K94" s="51"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>44743</v>
+      </c>
       <c r="B95" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39">
         <v>1</v>
@@ -3820,38 +3830,32 @@
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="47">
-        <v>44804</v>
+        <v>44762</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D96" s="39"/>
+        <v>153</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39">
+        <v>0.246</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H96" s="39">
-        <v>6</v>
-      </c>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20" t="s">
-        <v>127</v>
-      </c>
+      <c r="K96" s="47"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>45</v>
@@ -3872,25 +3876,21 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="47">
-        <v>44859</v>
+        <v>44788</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H98" s="39">
         <v>1</v>
@@ -3898,17 +3898,17 @@
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="47">
-        <v>44892</v>
+        <v>44804</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39">
-        <v>2</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
@@ -3919,70 +3919,70 @@
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="47" t="s">
-        <v>133</v>
-      </c>
+      <c r="K99" s="47"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>44805</v>
+      </c>
       <c r="B100" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="39">
-        <v>1.0249999999999999</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H100" s="39">
+        <v>6</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="47"/>
+      <c r="K100" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" s="13">
-        <v>1.25</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="39">
-        <v>3</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H101" s="39">
-        <v>1</v>
-      </c>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>44835</v>
+      </c>
       <c r="B102" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39">
         <v>1</v>
@@ -3990,17 +3990,17 @@
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
       <c r="K102" s="47">
-        <v>44924</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39">
-        <v>0.28100000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
@@ -4014,167 +4014,167 @@
       <c r="K103" s="47"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
+      <c r="A104" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H104" s="39">
+        <v>1</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="47">
+        <v>44892</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D105" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39">
+        <v>2</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="47">
-        <v>44931</v>
+      <c r="K105" s="47" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="C106" s="13"/>
-      <c r="D106" s="39"/>
+      <c r="D106" s="39">
+        <v>1.0249999999999999</v>
+      </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
       <c r="G106" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H106" s="39">
-        <v>1</v>
-      </c>
+      <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="47">
-        <v>44938</v>
-      </c>
+      <c r="K106" s="47"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>44896</v>
+      </c>
       <c r="B107" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="39"/>
+        <v>130</v>
+      </c>
+      <c r="C107" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D107" s="39">
+        <v>3</v>
+      </c>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G107" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H107" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="47" t="s">
-        <v>138</v>
+      <c r="K107" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C108" s="13"/>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H108" s="39"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39">
+        <v>1</v>
+      </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="47">
-        <v>44972</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C109" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D109" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39">
+        <v>0.28100000000000003</v>
+      </c>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H109" s="39">
-        <v>1</v>
-      </c>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="47">
-        <v>45000</v>
-      </c>
+      <c r="K109" s="47"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>45017</v>
+      <c r="A110" s="46" t="s">
+        <v>134</v>
       </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C110" s="13"/>
       <c r="D110" s="39"/>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="47"/>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45047</v>
+        <v>44927</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C111" s="13">
         <v>1.25</v>
@@ -4186,24 +4186,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H111" s="39">
-        <v>1</v>
-      </c>
+      <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
       <c r="K111" s="47">
-        <v>45051</v>
+        <v>44931</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="C112" s="13"/>
-      <c r="D112" s="39">
-        <v>1</v>
-      </c>
+      <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
@@ -4215,47 +4211,43 @@
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="47" t="s">
-        <v>143</v>
+      <c r="K112" s="47">
+        <v>44938</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C113" s="13">
-        <v>1.25</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C113" s="13"/>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H113" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="47" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
       </c>
-      <c r="D114" s="39">
-        <v>1</v>
-      </c>
+      <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
       <c r="G114" s="13">
@@ -4266,21 +4258,25 @@
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="47">
-        <v>45116</v>
+        <v>44972</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>44986</v>
+      </c>
       <c r="B115" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39">
         <v>1</v>
@@ -4288,16 +4284,14 @@
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
       <c r="K115" s="47">
-        <v>45084</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B116" s="20"/>
       <c r="C116" s="13">
         <v>1.25</v>
       </c>
@@ -4308,164 +4302,172 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H116" s="39">
-        <v>1</v>
-      </c>
+      <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="47">
-        <v>45154</v>
-      </c>
+      <c r="K116" s="47"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45170</v>
+        <v>45047</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
       </c>
-      <c r="D117" s="39">
-        <v>2</v>
-      </c>
+      <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="39">
+        <v>1</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="47">
+        <v>45051</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C118" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D118" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="39">
+        <v>1</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H118" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20" t="s">
-        <v>146</v>
+      <c r="K118" s="47" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45078</v>
+      </c>
       <c r="B119" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39">
         <v>1</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="47">
-        <v>45198</v>
-      </c>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>45108</v>
+      </c>
       <c r="B120" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
+        <v>46</v>
+      </c>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D120" s="39">
+        <v>1</v>
+      </c>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="39">
-        <v>1</v>
-      </c>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
       <c r="K120" s="47">
-        <v>45224</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C121" s="13"/>
       <c r="D121" s="39"/>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H121" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20" t="s">
-        <v>147</v>
+      <c r="K121" s="47">
+        <v>45084</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>45139</v>
+      </c>
       <c r="B122" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39">
         <v>1</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="47">
+        <v>45154</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B123" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C123" s="13">
         <v>1.25</v>
       </c>
-      <c r="D123" s="39"/>
+      <c r="D123" s="39">
+        <v>2</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13">
@@ -4478,29 +4480,35 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
+      <c r="A124" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H124" s="39">
+        <v>2</v>
+      </c>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
+      <c r="K124" s="20" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -4510,18 +4518,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H125" s="39"/>
+      <c r="H125" s="39">
+        <v>1</v>
+      </c>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
       <c r="K125" s="47">
-        <v>45296</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B126" s="20"/>
+      <c r="A126" s="40"/>
+      <c r="B126" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
       <c r="E126" s="9"/>
@@ -4530,32 +4540,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H126" s="39"/>
+      <c r="H126" s="39">
+        <v>1</v>
+      </c>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="47">
+        <v>45224</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H127" s="39">
+        <v>2</v>
+      </c>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
+      <c r="K127" s="20" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
+      <c r="B128" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
       <c r="E128" s="9"/>
@@ -4564,26 +4588,140 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H128" s="39"/>
+      <c r="H128" s="39">
+        <v>1</v>
+      </c>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="43"/>
+      <c r="A129" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D129" s="39"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="43"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H129" s="39"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="47">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8238,16 +8376,14 @@
       <c r="B3" s="11">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" s="45">
         <f>SUM(D3,E4,F4)</f>
-        <v>1.0249999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J3" s="34">
         <v>40863</v>
@@ -8268,7 +8404,7 @@
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>2.5000000000000008E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">

--- a/CASUAL/LA TICC/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/CASUAL/LA TICC/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="157">
   <si>
     <t>PERIOD</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>01/11,18/2024</t>
   </si>
 </sst>
 </file>
@@ -1823,9 +1826,9 @@
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A117" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,7 +1993,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.046000000000003</v>
+        <v>22.296000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2000,7 +2003,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>-8.2999999999999963E-2</v>
+        <v>1.167</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4640,13 +4643,15 @@
       <c r="B131" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
@@ -4659,9 +4664,13 @@
       <c r="A132" s="40">
         <v>45323</v>
       </c>
-      <c r="B132" s="20"/>
+      <c r="B132" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
+      <c r="D132" s="39">
+        <v>2</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
       <c r="G132" s="13" t="str">
@@ -4671,7 +4680,9 @@
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
+      <c r="K132" s="20" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
@@ -8267,17 +8278,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
